--- a/삐용삐용조 테스트 케이스.xlsx
+++ b/삐용삐용조 테스트 케이스.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_desktop\pypy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입을 눌렀을때 회원가입에 잘 넘거가는지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비밀번호 재 입력 정보가 같은지 확인 가능한지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,6 +323,38 @@
   </si>
   <si>
     <t>프로필 정보수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입을 눌렀을때 회원가입에 잘 넘어가는지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +776,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M67" sqref="M67"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -759,14 +787,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
       <c r="F1" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G1" s="7"/>
     </row>
@@ -783,10 +811,10 @@
         <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -805,9 +833,11 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -818,9 +848,11 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -833,7 +865,9 @@
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -844,9 +878,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -857,9 +893,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -870,9 +908,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -883,9 +923,11 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -907,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -920,7 +962,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -933,7 +975,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -946,7 +988,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -959,7 +1001,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -972,7 +1014,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -985,7 +1027,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -998,7 +1040,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1011,7 +1053,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1024,7 +1066,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1037,7 +1079,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1050,7 +1092,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1063,7 +1105,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1087,7 +1129,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1100,7 +1142,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1113,7 +1155,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1126,7 +1168,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1150,7 +1192,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1163,7 +1205,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1187,7 +1229,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1200,7 +1242,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1213,7 +1255,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1226,7 +1268,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1239,7 +1281,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1252,7 +1294,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1276,7 +1318,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1289,7 +1331,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1302,7 +1344,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1326,7 +1368,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1339,7 +1381,7 @@
         <v>37</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1352,7 +1394,7 @@
         <v>38</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1365,7 +1407,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1378,7 +1420,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1391,7 +1433,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1404,7 +1446,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1428,7 +1470,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1441,7 +1483,7 @@
         <v>44</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1454,7 +1496,7 @@
         <v>45</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1467,7 +1509,7 @@
         <v>46</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1477,7 +1519,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1491,7 +1533,7 @@
         <v>47</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1504,7 +1546,7 @@
         <v>48</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1517,7 +1559,7 @@
         <v>49</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1530,7 +1572,7 @@
         <v>50</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1554,7 +1596,7 @@
         <v>51</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1567,7 +1609,7 @@
         <v>52</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1580,7 +1622,7 @@
         <v>53</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1593,7 +1635,7 @@
         <v>54</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1617,7 +1659,7 @@
         <v>55</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1641,7 +1683,7 @@
         <v>56</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1654,7 +1696,7 @@
         <v>57</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1667,7 +1709,7 @@
         <v>58</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1677,17 +1719,17 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A40:G40"/>
     <mergeCell ref="A69:G69"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A25:G25"/>
     <mergeCell ref="A30:G30"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="A67:G67"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A40:G40"/>
     <mergeCell ref="A44:G44"/>
     <mergeCell ref="A52:G52"/>
     <mergeCell ref="A57:G57"/>
